--- a/db/wildbrine.xlsx
+++ b/db/wildbrine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Documents\WPy64-3741\notebooks\spyder\tms-load-robot\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Documents\WinPython\dev\tms-load-robot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Tolleson, AZ</t>
   </si>
   <si>
     <t>Mira Loma, CA</t>
-  </si>
-  <si>
-    <t>Tracy, CA</t>
   </si>
   <si>
     <t>Sumner, WA</t>
@@ -104,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -112,31 +109,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,23 +398,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -453,69 +434,54 @@
       <c r="G1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="C2" s="3">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="D2" s="3">
-        <v>920</v>
+        <v>750</v>
       </c>
       <c r="E2" s="3">
-        <v>1020</v>
+        <v>990</v>
       </c>
       <c r="F2" s="3">
-        <v>1275</v>
+        <v>1230</v>
       </c>
       <c r="G2" s="3">
-        <v>1775</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
-        <v>535</v>
+        <v>385</v>
       </c>
       <c r="C3" s="3">
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="D3" s="3">
-        <v>950</v>
+        <v>1045</v>
       </c>
       <c r="E3" s="3">
-        <v>1050</v>
+        <v>1405</v>
       </c>
       <c r="F3" s="3">
-        <v>1250</v>
+        <v>1745</v>
       </c>
       <c r="G3" s="3">
-        <v>1520</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -523,413 +489,342 @@
         <v>250</v>
       </c>
       <c r="C4" s="3">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="D4" s="3">
-        <v>590</v>
+        <v>490</v>
       </c>
       <c r="E4" s="3">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="F4" s="3">
+        <v>750</v>
+      </c>
+      <c r="G4" s="3">
         <v>825</v>
       </c>
-      <c r="G4" s="3">
-        <v>850</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1025</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1050</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
-        <v>210</v>
+        <v>795</v>
       </c>
       <c r="C5" s="3">
-        <v>380</v>
+        <v>1535</v>
       </c>
       <c r="D5" s="3">
-        <v>535</v>
+        <v>2290</v>
       </c>
       <c r="E5" s="3">
-        <v>680</v>
+        <v>3060</v>
       </c>
       <c r="F5" s="3">
-        <v>850</v>
+        <v>3815</v>
       </c>
       <c r="G5" s="3">
-        <v>850</v>
-      </c>
-      <c r="H5" s="3">
-        <v>850</v>
-      </c>
-      <c r="I5" s="3">
-        <v>850</v>
-      </c>
-      <c r="J5" s="3">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>650</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1285</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1915</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2560</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3195</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>500</v>
-      </c>
-      <c r="C6" s="3">
-        <v>950</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1325</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1860</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2780</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3210</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3685</v>
-      </c>
-      <c r="J6" s="3">
-        <v>4155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="B7" s="3">
-        <v>400</v>
+        <v>595</v>
       </c>
       <c r="C7" s="3">
-        <v>810</v>
+        <v>1170</v>
       </c>
       <c r="D7" s="3">
-        <v>1215</v>
+        <v>1745</v>
       </c>
       <c r="E7" s="3">
-        <v>1645</v>
+        <v>2335</v>
       </c>
       <c r="F7" s="3">
-        <v>2025</v>
+        <v>2910</v>
       </c>
       <c r="G7" s="3">
-        <v>2405</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2775</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3165</v>
-      </c>
-      <c r="J7" s="3">
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>360</v>
+        <v>695</v>
       </c>
       <c r="C8" s="3">
-        <v>725</v>
+        <v>1395</v>
       </c>
       <c r="D8" s="3">
-        <v>1060</v>
+        <v>2085</v>
       </c>
       <c r="E8" s="3">
-        <v>1430</v>
+        <v>2790</v>
       </c>
       <c r="F8" s="3">
-        <v>1780</v>
+        <v>3480</v>
       </c>
       <c r="G8" s="3">
-        <v>2140</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2425</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2850</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="C9" s="3">
-        <v>1000</v>
+        <v>935</v>
       </c>
       <c r="D9" s="3">
-        <v>1295</v>
+        <v>1390</v>
       </c>
       <c r="E9" s="3">
-        <v>1735</v>
+        <v>1860</v>
       </c>
       <c r="F9" s="3">
-        <v>2175</v>
+        <v>2315</v>
       </c>
       <c r="G9" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3">
-        <v>300</v>
+        <v>755</v>
       </c>
       <c r="C10" s="3">
-        <v>600</v>
+        <v>1470</v>
       </c>
       <c r="D10" s="3">
-        <v>900</v>
+        <v>2195</v>
       </c>
       <c r="E10" s="3">
-        <v>1200</v>
+        <v>2935</v>
       </c>
       <c r="F10" s="3">
-        <v>1325</v>
+        <v>3660</v>
       </c>
       <c r="G10" s="3">
-        <v>1590</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1850</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="3">
-        <v>455</v>
+        <v>755</v>
       </c>
       <c r="C11" s="3">
-        <v>915</v>
+        <v>1470</v>
       </c>
       <c r="D11" s="3">
-        <v>1360</v>
+        <v>2195</v>
       </c>
       <c r="E11" s="3">
-        <v>2000</v>
+        <v>2935</v>
       </c>
       <c r="F11" s="3">
-        <v>2470</v>
+        <v>3660</v>
       </c>
       <c r="G11" s="3">
-        <v>2920</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="3">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="C12" s="3">
-        <v>915</v>
+        <v>1015</v>
       </c>
       <c r="D12" s="3">
-        <v>1360</v>
+        <v>1515</v>
       </c>
       <c r="E12" s="3">
-        <v>2000</v>
+        <v>2025</v>
       </c>
       <c r="F12" s="3">
-        <v>2470</v>
+        <v>2520</v>
       </c>
       <c r="G12" s="3">
-        <v>2920</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="3">
-        <v>325</v>
+        <v>545</v>
       </c>
       <c r="C13" s="3">
-        <v>650</v>
+        <v>1065</v>
       </c>
       <c r="D13" s="3">
-        <v>980</v>
+        <v>1590</v>
       </c>
       <c r="E13" s="3">
-        <v>1300</v>
+        <v>2130</v>
       </c>
       <c r="F13" s="3">
-        <v>1665</v>
+        <v>2650</v>
       </c>
       <c r="G13" s="3">
-        <v>1960</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>450</v>
+        <v>795</v>
       </c>
       <c r="C14" s="3">
-        <v>790</v>
+        <v>1550</v>
       </c>
       <c r="D14" s="3">
-        <v>1185</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3080</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3845</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>515</v>
+        <v>795</v>
       </c>
       <c r="C15" s="3">
-        <v>970</v>
+        <v>1590</v>
       </c>
       <c r="D15" s="3">
-        <v>1340</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2375</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3175</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3960</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>465</v>
+        <v>800</v>
       </c>
       <c r="C16" s="3">
-        <v>935</v>
+        <v>1600</v>
       </c>
       <c r="D16" s="3">
-        <v>1400</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2390</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3195</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3990</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>630</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1260</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1880</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2520</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3140</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <v>550</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1480</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B18" s="3">
-        <v>360</v>
+        <v>545</v>
       </c>
       <c r="C18" s="3">
-        <v>725</v>
+        <v>1090</v>
       </c>
       <c r="D18" s="3">
-        <v>1065</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
-        <v>325</v>
-      </c>
-      <c r="C19" s="3">
-        <v>670</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+        <v>1630</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2180</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2715</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3255</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
